--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Quick Heal Technologies Ltd/Pruned_Excel/Final_Parameters/Quick Heal Technologies Ltd_Cleaned_Data_Updated.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Quick Heal Technologies Ltd/Pruned_Excel/Final_Parameters/Quick Heal Technologies Ltd_Cleaned_Data_Updated.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="134">
   <si>
     <t>Balance Sheet of Quick Heal Technologies(in Rs. Cr.)</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>P/l before exceptional items &amp; tax</t>
+  </si>
+  <si>
+    <t>Exceptional items</t>
   </si>
   <si>
     <t>P/l before tax</t>
@@ -2883,13 +2886,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2950,10 +2953,13 @@
       <c r="T1" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>57</v>
@@ -2982,23 +2988,20 @@
       <c r="K2">
         <v>-2.14</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>-2.14</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.05</v>
-      </c>
-      <c r="N2">
-        <v>-2.19</v>
       </c>
       <c r="O2">
         <v>-2.19</v>
       </c>
       <c r="P2">
+        <v>-2.19</v>
+      </c>
+      <c r="Q2">
         <v>62.24</v>
-      </c>
-      <c r="Q2">
-        <v>-0.35</v>
       </c>
       <c r="R2">
         <v>-0.35</v>
@@ -3009,10 +3012,13 @@
       <c r="T2">
         <v>-0.35</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>84.90000000000001</v>
@@ -3041,37 +3047,37 @@
       <c r="K3">
         <v>37.01</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>37.01</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>12.06</v>
-      </c>
-      <c r="N3">
-        <v>24.96</v>
       </c>
       <c r="O3">
         <v>24.96</v>
       </c>
       <c r="P3">
+        <v>24.96</v>
+      </c>
+      <c r="Q3">
         <v>61.07</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>4.09</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>4.03</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>4.09</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>4.03</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>61.83</v>
@@ -3100,25 +3106,25 @@
       <c r="K4">
         <v>1.84</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1.84</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.46</v>
-      </c>
-      <c r="N4">
-        <v>1.38</v>
       </c>
       <c r="O4">
         <v>1.38</v>
       </c>
       <c r="P4">
+        <v>1.38</v>
+      </c>
+      <c r="Q4">
         <v>61.07</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>103.65</v>
@@ -3147,37 +3153,37 @@
       <c r="K5">
         <v>35.3</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>35.3</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>11.01</v>
-      </c>
-      <c r="N5">
-        <v>24.29</v>
       </c>
       <c r="O5">
         <v>24.29</v>
       </c>
       <c r="P5">
+        <v>24.29</v>
+      </c>
+      <c r="Q5">
         <v>61.07</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>3.98</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>3.92</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>3.98</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>3.92</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>53.19</v>
@@ -3207,22 +3213,22 @@
         <v>4.89</v>
       </c>
       <c r="L6">
+        <v>-0.63</v>
+      </c>
+      <c r="M6">
         <v>4.26</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1.64</v>
-      </c>
-      <c r="N6">
-        <v>2.62</v>
       </c>
       <c r="O6">
         <v>2.62</v>
       </c>
       <c r="P6">
+        <v>2.62</v>
+      </c>
+      <c r="Q6">
         <v>70.09</v>
-      </c>
-      <c r="Q6">
-        <v>0.37</v>
       </c>
       <c r="R6">
         <v>0.37</v>
@@ -3233,10 +3239,13 @@
       <c r="T6">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>106.43</v>
@@ -3265,37 +3274,37 @@
       <c r="K7">
         <v>54.74</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>54.74</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>18.43</v>
-      </c>
-      <c r="N7">
-        <v>36.31</v>
       </c>
       <c r="O7">
         <v>36.31</v>
       </c>
       <c r="P7">
+        <v>36.31</v>
+      </c>
+      <c r="Q7">
         <v>70.03</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>5.18</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>5.15</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>5.18</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>5.15</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>47.51</v>
@@ -3325,22 +3334,22 @@
         <v>-1.48</v>
       </c>
       <c r="L8">
+        <v>-3.78</v>
+      </c>
+      <c r="M8">
         <v>-5.26</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-1.87</v>
-      </c>
-      <c r="N8">
-        <v>-3.39</v>
       </c>
       <c r="O8">
         <v>-3.39</v>
       </c>
       <c r="P8">
+        <v>-3.39</v>
+      </c>
+      <c r="Q8">
         <v>70.03</v>
-      </c>
-      <c r="Q8">
-        <v>-0.48</v>
       </c>
       <c r="R8">
         <v>-0.48</v>
@@ -3351,10 +3360,13 @@
       <c r="T8">
         <v>-0.48</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>130.74</v>
@@ -3383,23 +3395,20 @@
       <c r="K9">
         <v>56.29</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>56.29</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>17.58</v>
-      </c>
-      <c r="N9">
-        <v>38.71</v>
       </c>
       <c r="O9">
         <v>38.71</v>
       </c>
       <c r="P9">
+        <v>38.71</v>
+      </c>
+      <c r="Q9">
         <v>70.03</v>
-      </c>
-      <c r="Q9">
-        <v>6.21</v>
       </c>
       <c r="R9">
         <v>6.21</v>
@@ -3410,10 +3419,13 @@
       <c r="T9">
         <v>6.21</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>91.89</v>
@@ -3442,37 +3454,37 @@
       <c r="K10">
         <v>36</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>36</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>12.37</v>
-      </c>
-      <c r="N10">
-        <v>23.63</v>
       </c>
       <c r="O10">
         <v>23.63</v>
       </c>
       <c r="P10">
+        <v>23.63</v>
+      </c>
+      <c r="Q10">
         <v>70.09999999999999</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>3.37</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>3.35</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>3.37</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>3.35</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>63.59</v>
@@ -3502,22 +3514,22 @@
         <v>11.49</v>
       </c>
       <c r="L11">
+        <v>-0.33</v>
+      </c>
+      <c r="M11">
         <v>11.17</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>3.2</v>
-      </c>
-      <c r="N11">
-        <v>7.97</v>
       </c>
       <c r="O11">
         <v>7.97</v>
       </c>
       <c r="P11">
+        <v>7.97</v>
+      </c>
+      <c r="Q11">
         <v>70.19</v>
-      </c>
-      <c r="Q11">
-        <v>1.13</v>
       </c>
       <c r="R11">
         <v>1.13</v>
@@ -3528,10 +3540,13 @@
       <c r="T11">
         <v>1.13</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B12">
         <v>104.53</v>
@@ -3560,37 +3575,37 @@
       <c r="K12">
         <v>59.22</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>59.22</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>19.95</v>
-      </c>
-      <c r="N12">
-        <v>39.27</v>
       </c>
       <c r="O12">
         <v>39.27</v>
       </c>
       <c r="P12">
+        <v>39.27</v>
+      </c>
+      <c r="Q12">
         <v>70.19</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>5.6</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>5.58</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>5.6</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>5.58</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13">
         <v>29.72</v>
@@ -3619,37 +3634,37 @@
       <c r="K13">
         <v>-16.74</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-16.74</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-5.65</v>
-      </c>
-      <c r="N13">
-        <v>-11.09</v>
       </c>
       <c r="O13">
         <v>-11.09</v>
       </c>
       <c r="P13">
+        <v>-11.09</v>
+      </c>
+      <c r="Q13">
         <v>70.19</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-1.58</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-1.57</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-1.58</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-1.57</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B14">
         <v>52.79</v>
@@ -3678,23 +3693,20 @@
       <c r="K14">
         <v>9.73</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>9.73</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3.29</v>
-      </c>
-      <c r="N14">
-        <v>6.44</v>
       </c>
       <c r="O14">
         <v>6.44</v>
       </c>
       <c r="P14">
+        <v>6.44</v>
+      </c>
+      <c r="Q14">
         <v>70.47</v>
-      </c>
-      <c r="Q14">
-        <v>0.91</v>
       </c>
       <c r="R14">
         <v>0.91</v>
@@ -3705,10 +3717,13 @@
       <c r="T14">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B15">
         <v>118.38</v>
@@ -3738,36 +3753,39 @@
         <v>72.73999999999999</v>
       </c>
       <c r="L15">
+        <v>-7.18</v>
+      </c>
+      <c r="M15">
         <v>65.56</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>22.84</v>
-      </c>
-      <c r="N15">
-        <v>42.72</v>
       </c>
       <c r="O15">
         <v>42.72</v>
       </c>
       <c r="P15">
+        <v>42.72</v>
+      </c>
+      <c r="Q15">
         <v>70.39</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>6.08</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>6.07</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>6.08</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>6.07</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16">
         <v>65.91</v>
@@ -3796,23 +3814,20 @@
       <c r="K16">
         <v>23.98</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>23.98</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>7.89</v>
-      </c>
-      <c r="N16">
-        <v>16.09</v>
       </c>
       <c r="O16">
         <v>16.09</v>
       </c>
       <c r="P16">
+        <v>16.09</v>
+      </c>
+      <c r="Q16">
         <v>70.55</v>
-      </c>
-      <c r="Q16">
-        <v>2.28</v>
       </c>
       <c r="R16">
         <v>2.28</v>
@@ -3823,10 +3838,13 @@
       <c r="T16">
         <v>2.28</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B17">
         <v>108.86</v>
@@ -3856,36 +3874,39 @@
         <v>62.9</v>
       </c>
       <c r="L17">
+        <v>-5</v>
+      </c>
+      <c r="M17">
         <v>57.9</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>20.2</v>
-      </c>
-      <c r="N17">
-        <v>37.7</v>
       </c>
       <c r="O17">
         <v>37.7</v>
       </c>
       <c r="P17">
+        <v>37.7</v>
+      </c>
+      <c r="Q17">
         <v>70.48999999999999</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>5.35</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>5.34</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>5.35</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>5.34</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B18">
         <v>97.69</v>
@@ -3914,23 +3935,20 @@
       <c r="K18">
         <v>50.37</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>50.37</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>12.81</v>
-      </c>
-      <c r="N18">
-        <v>37.57</v>
       </c>
       <c r="O18">
         <v>37.57</v>
       </c>
       <c r="P18">
+        <v>37.57</v>
+      </c>
+      <c r="Q18">
         <v>64.2</v>
-      </c>
-      <c r="Q18">
-        <v>5.85</v>
       </c>
       <c r="R18">
         <v>5.85</v>
@@ -3941,10 +3959,13 @@
       <c r="T18">
         <v>5.85</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B19">
         <v>57.15</v>
@@ -3973,23 +3994,20 @@
       <c r="K19">
         <v>16.28</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>16.28</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>4.19</v>
-      </c>
-      <c r="N19">
-        <v>12.09</v>
       </c>
       <c r="O19">
         <v>12.09</v>
       </c>
       <c r="P19">
+        <v>12.09</v>
+      </c>
+      <c r="Q19">
         <v>64.2</v>
-      </c>
-      <c r="Q19">
-        <v>1.73</v>
       </c>
       <c r="R19">
         <v>1.73</v>
@@ -4000,10 +4018,13 @@
       <c r="T19">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20">
         <v>85.34999999999999</v>
@@ -4033,22 +4054,22 @@
         <v>41.77</v>
       </c>
       <c r="L20">
+        <v>-4.32</v>
+      </c>
+      <c r="M20">
         <v>37.45</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>13.73</v>
-      </c>
-      <c r="N20">
-        <v>23.73</v>
       </c>
       <c r="O20">
         <v>23.73</v>
       </c>
       <c r="P20">
+        <v>23.73</v>
+      </c>
+      <c r="Q20">
         <v>70.56</v>
-      </c>
-      <c r="Q20">
-        <v>3.37</v>
       </c>
       <c r="R20">
         <v>3.37</v>
@@ -4059,10 +4080,13 @@
       <c r="T20">
         <v>3.37</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B21">
         <v>65.14</v>
@@ -4091,23 +4115,20 @@
       <c r="K21">
         <v>25.56</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>25.56</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>7.59</v>
-      </c>
-      <c r="N21">
-        <v>17.96</v>
       </c>
       <c r="O21">
         <v>17.96</v>
       </c>
       <c r="P21">
+        <v>17.96</v>
+      </c>
+      <c r="Q21">
         <v>64.2</v>
-      </c>
-      <c r="Q21">
-        <v>2.8</v>
       </c>
       <c r="R21">
         <v>2.8</v>
@@ -4118,10 +4139,13 @@
       <c r="T21">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B22">
         <v>71.12</v>
@@ -4150,23 +4174,20 @@
       <c r="K22">
         <v>17.02</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>17.02</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>4.3</v>
-      </c>
-      <c r="N22">
-        <v>12.72</v>
       </c>
       <c r="O22">
         <v>12.72</v>
       </c>
       <c r="P22">
+        <v>12.72</v>
+      </c>
+      <c r="Q22">
         <v>64.20999999999999</v>
-      </c>
-      <c r="Q22">
-        <v>1.98</v>
       </c>
       <c r="R22">
         <v>1.98</v>
@@ -4177,10 +4198,13 @@
       <c r="T22">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B23">
         <v>82.86</v>
@@ -4209,23 +4233,20 @@
       <c r="K23">
         <v>39.58</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>39.58</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>11.18</v>
-      </c>
-      <c r="N23">
-        <v>28.4</v>
       </c>
       <c r="O23">
         <v>28.4</v>
       </c>
       <c r="P23">
+        <v>28.4</v>
+      </c>
+      <c r="Q23">
         <v>64.2</v>
-      </c>
-      <c r="Q23">
-        <v>4.43</v>
       </c>
       <c r="R23">
         <v>4.43</v>
@@ -4236,10 +4257,13 @@
       <c r="T23">
         <v>4.43</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B24">
         <v>73.44</v>
@@ -4268,23 +4292,20 @@
       <c r="K24">
         <v>34.44</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>34.44</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>8.81</v>
-      </c>
-      <c r="N24">
-        <v>25.63</v>
       </c>
       <c r="O24">
         <v>25.63</v>
       </c>
       <c r="P24">
+        <v>25.63</v>
+      </c>
+      <c r="Q24">
         <v>64.2</v>
-      </c>
-      <c r="Q24">
-        <v>3.99</v>
       </c>
       <c r="R24">
         <v>3.99</v>
@@ -4295,10 +4316,13 @@
       <c r="T24">
         <v>3.99</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B25">
         <v>63.43</v>
@@ -4328,22 +4352,22 @@
         <v>10.55</v>
       </c>
       <c r="L25">
+        <v>-2.32</v>
+      </c>
+      <c r="M25">
         <v>8.23</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>2.21</v>
-      </c>
-      <c r="N25">
-        <v>6.02</v>
       </c>
       <c r="O25">
         <v>6.02</v>
       </c>
       <c r="P25">
+        <v>6.02</v>
+      </c>
+      <c r="Q25">
         <v>64.2</v>
-      </c>
-      <c r="Q25">
-        <v>0.9399999999999999</v>
       </c>
       <c r="R25">
         <v>0.9399999999999999</v>
@@ -4354,10 +4378,13 @@
       <c r="T25">
         <v>0.9399999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B26">
         <v>79.63</v>
@@ -4386,37 +4413,37 @@
       <c r="K26">
         <v>19.53</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>19.53</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>5.25</v>
-      </c>
-      <c r="N26">
-        <v>14.28</v>
       </c>
       <c r="O26">
         <v>14.28</v>
       </c>
       <c r="P26">
+        <v>14.28</v>
+      </c>
+      <c r="Q26">
         <v>57.96</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>2.47</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2.45</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>2.47</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>2.45</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B27">
         <v>103.79</v>
@@ -4445,37 +4472,37 @@
       <c r="K27">
         <v>45.79</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>45.79</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>11.14</v>
-      </c>
-      <c r="N27">
-        <v>34.65</v>
       </c>
       <c r="O27">
         <v>34.65</v>
       </c>
       <c r="P27">
+        <v>34.65</v>
+      </c>
+      <c r="Q27">
         <v>57.9</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>5.4</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>5.36</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>5.4</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>5.36</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B28">
         <v>54.38</v>
@@ -4505,22 +4532,22 @@
         <v>6.57</v>
       </c>
       <c r="L28">
+        <v>-2.16</v>
+      </c>
+      <c r="M28">
         <v>4.4</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1.14</v>
-      </c>
-      <c r="N28">
-        <v>3.26</v>
       </c>
       <c r="O28">
         <v>3.26</v>
       </c>
       <c r="P28">
+        <v>3.26</v>
+      </c>
+      <c r="Q28">
         <v>57.88</v>
-      </c>
-      <c r="Q28">
-        <v>0.51</v>
       </c>
       <c r="R28">
         <v>0.51</v>
@@ -4531,10 +4558,13 @@
       <c r="T28">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29">
         <v>106.11</v>
@@ -4563,37 +4593,37 @@
       <c r="K29">
         <v>54.8</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>54.8</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>14.76</v>
-      </c>
-      <c r="N29">
-        <v>40.04</v>
       </c>
       <c r="O29">
         <v>40.04</v>
       </c>
       <c r="P29">
+        <v>40.04</v>
+      </c>
+      <c r="Q29">
         <v>64.20999999999999</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>6.24</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>6.22</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>6.24</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>6.22</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B30">
         <v>103.75</v>
@@ -4623,36 +4653,39 @@
         <v>35.77</v>
       </c>
       <c r="L30">
+        <v>-1.9</v>
+      </c>
+      <c r="M30">
         <v>33.87</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>7.84</v>
-      </c>
-      <c r="N30">
-        <v>26.03</v>
       </c>
       <c r="O30">
         <v>26.03</v>
       </c>
       <c r="P30">
+        <v>26.03</v>
+      </c>
+      <c r="Q30">
         <v>58.01</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>4.49</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>4.47</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>4.49</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>4.47</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B31">
         <v>66.8</v>
@@ -4682,22 +4715,22 @@
         <v>-11.04</v>
       </c>
       <c r="L31">
+        <v>0.1</v>
+      </c>
+      <c r="M31">
         <v>-10.94</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-2.78</v>
-      </c>
-      <c r="N31">
-        <v>-8.16</v>
       </c>
       <c r="O31">
         <v>-8.16</v>
       </c>
       <c r="P31">
+        <v>-8.16</v>
+      </c>
+      <c r="Q31">
         <v>53.07</v>
-      </c>
-      <c r="Q31">
-        <v>-1.5</v>
       </c>
       <c r="R31">
         <v>-1.5</v>
@@ -4708,10 +4741,13 @@
       <c r="T31">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B32">
         <v>100.93</v>
@@ -4740,37 +4776,37 @@
       <c r="K32">
         <v>29.58</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>29.58</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>7.47</v>
-      </c>
-      <c r="N32">
-        <v>22.11</v>
       </c>
       <c r="O32">
         <v>22.11</v>
       </c>
       <c r="P32">
+        <v>22.11</v>
+      </c>
+      <c r="Q32">
         <v>58.07</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>3.81</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>3.8</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>3.81</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>3.8</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B33">
         <v>61.09</v>
@@ -4799,23 +4835,20 @@
       <c r="K33">
         <v>0.4</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.4</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.1</v>
-      </c>
-      <c r="N33">
-        <v>0.3</v>
       </c>
       <c r="O33">
         <v>0.3</v>
       </c>
       <c r="P33">
+        <v>0.3</v>
+      </c>
+      <c r="Q33">
         <v>58.02</v>
-      </c>
-      <c r="Q33">
-        <v>0.05</v>
       </c>
       <c r="R33">
         <v>0.05</v>
@@ -4826,10 +4859,13 @@
       <c r="T33">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="U33">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B34">
         <v>51.43</v>
@@ -4858,23 +4894,20 @@
       <c r="K34">
         <v>-13.4</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-13.4</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>-0.52</v>
-      </c>
-      <c r="N34">
-        <v>-12.88</v>
       </c>
       <c r="O34">
         <v>-12.88</v>
       </c>
       <c r="P34">
+        <v>-12.88</v>
+      </c>
+      <c r="Q34">
         <v>53.07</v>
-      </c>
-      <c r="Q34">
-        <v>-2.43</v>
       </c>
       <c r="R34">
         <v>-2.43</v>
@@ -4885,10 +4918,13 @@
       <c r="T34">
         <v>-2.43</v>
       </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="U34">
+        <v>-2.43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B35">
         <v>49.29</v>
@@ -4917,23 +4953,20 @@
       <c r="K35">
         <v>-9.75</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>-9.75</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>-3.2</v>
-      </c>
-      <c r="N35">
-        <v>-6.55</v>
       </c>
       <c r="O35">
         <v>-6.55</v>
       </c>
       <c r="P35">
+        <v>-6.55</v>
+      </c>
+      <c r="Q35">
         <v>53.07</v>
-      </c>
-      <c r="Q35">
-        <v>-1.23</v>
       </c>
       <c r="R35">
         <v>-1.23</v>
@@ -4944,10 +4977,13 @@
       <c r="T35">
         <v>-1.23</v>
       </c>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="U35">
+        <v>-1.23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B36">
         <v>81.92</v>
@@ -4976,37 +5012,37 @@
       <c r="K36">
         <v>12.49</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>12.49</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>2.47</v>
-      </c>
-      <c r="N36">
-        <v>10.02</v>
       </c>
       <c r="O36">
         <v>10.02</v>
       </c>
       <c r="P36">
+        <v>10.02</v>
+      </c>
+      <c r="Q36">
         <v>53.32</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>1.88</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>1.85</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>1.88</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>1.85</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B37">
         <v>78.37</v>
@@ -5035,37 +5071,37 @@
       <c r="K37">
         <v>13.41</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>13.41</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.51</v>
-      </c>
-      <c r="N37">
-        <v>12.9</v>
       </c>
       <c r="O37">
         <v>12.9</v>
       </c>
       <c r="P37">
+        <v>12.9</v>
+      </c>
+      <c r="Q37">
         <v>53.08</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>2.43</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>2.42</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>2.43</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>2.42</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B38">
         <v>73.56999999999999</v>
@@ -5097,37 +5133,37 @@
       <c r="K38">
         <v>4.89</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>4.89</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.92</v>
-      </c>
-      <c r="N38">
-        <v>3.97</v>
       </c>
       <c r="O38">
         <v>3.97</v>
       </c>
       <c r="P38">
+        <v>3.97</v>
+      </c>
+      <c r="Q38">
         <v>53.8</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>0.74</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>0.72</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>0.74</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>0.72</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B39">
         <v>70.29000000000001</v>
@@ -5159,37 +5195,37 @@
       <c r="K39">
         <v>4.84</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>4.84</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>0.78</v>
-      </c>
-      <c r="N39">
-        <v>4.06</v>
       </c>
       <c r="O39">
         <v>4.06</v>
       </c>
       <c r="P39">
+        <v>4.06</v>
+      </c>
+      <c r="Q39">
         <v>53.54</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>0.76</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>0.74</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>0.76</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>0.74</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B40">
         <v>80.03</v>
@@ -5221,31 +5257,31 @@
       <c r="K40">
         <v>13.54</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>13.54</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>-0.49</v>
-      </c>
-      <c r="N40">
-        <v>14.03</v>
       </c>
       <c r="O40">
         <v>14.03</v>
       </c>
       <c r="P40">
+        <v>14.03</v>
+      </c>
+      <c r="Q40">
         <v>53.51</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>2.63</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>2.57</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>2.63</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>2.57</v>
       </c>
     </row>
@@ -5264,58 +5300,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:18">
